--- a/data/trans_dic/P2B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1806014230180025</v>
+        <v>0.1745758860816504</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4426644219492226</v>
+        <v>0.446989246848359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.348439846468502</v>
+        <v>0.3535769078322216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1588810610555674</v>
+        <v>0.1552373287480853</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2232121880812909</v>
+        <v>0.2200414320839209</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.506454290732536</v>
+        <v>0.5029948710697825</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.451505071027858</v>
+        <v>0.445439429092657</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1858164015129507</v>
+        <v>0.1875549564309602</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2090521584800201</v>
+        <v>0.2083536105270636</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4913783909965513</v>
+        <v>0.4892414149942377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4193854752797497</v>
+        <v>0.4170031226453582</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1855933611938105</v>
+        <v>0.1832415125911318</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2690064886571776</v>
+        <v>0.2698182948843429</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5622061818781087</v>
+        <v>0.5608858793301658</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4657389677151121</v>
+        <v>0.467862570178759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2444164805273593</v>
+        <v>0.2446033818086358</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3347517379850233</v>
+        <v>0.3357957142955489</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6382754208105834</v>
+        <v>0.6361204877400053</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5793584235830762</v>
+        <v>0.5722766580514284</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2633435786674941</v>
+        <v>0.2653307630650824</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2782630972376916</v>
+        <v>0.2777681489918992</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5764943630610105</v>
+        <v>0.5798510471283556</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5060356997252441</v>
+        <v>0.5055774812721292</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2451009271594216</v>
+        <v>0.2420293281769288</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4670719547749576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2099954141381096</v>
+        <v>0.2099954141381095</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3000625182018377</v>
@@ -821,7 +821,7 @@
         <v>0.5632794737999871</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2455786832917161</v>
+        <v>0.2455786832917162</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2624234413372568</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1708855001627131</v>
+        <v>0.1711141999704555</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4385528830891404</v>
+        <v>0.4401514003850069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4070950941505782</v>
+        <v>0.4118628483704956</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.166210522872112</v>
+        <v>0.1669354509149995</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2464349346751042</v>
+        <v>0.2467937861694116</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5742036865377896</v>
+        <v>0.5661966535936803</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5066104884691631</v>
+        <v>0.5080785515940024</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2051856997153256</v>
+        <v>0.2062503521656484</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2255766786503623</v>
+        <v>0.2246358290389023</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5142719085398292</v>
+        <v>0.5153210045787578</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.478344132441059</v>
+        <v>0.4738925437653968</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.200077836255166</v>
+        <v>0.1936121592582438</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2693333759221204</v>
+        <v>0.272920136113757</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5555217250560612</v>
+        <v>0.5530757971841861</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5280957663026828</v>
+        <v>0.5318475000031414</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2644062937238048</v>
+        <v>0.2642930131680084</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3525191565472551</v>
+        <v>0.3527343396560141</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6888025253201434</v>
+        <v>0.6852197497636915</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6222161538280446</v>
+        <v>0.6201946638161027</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2922612279887262</v>
+        <v>0.291467019271668</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3052957732403045</v>
+        <v>0.301673118714072</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.595637920395496</v>
+        <v>0.6004351789084683</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5574916879573544</v>
+        <v>0.5600739780553724</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2598964719546079</v>
+        <v>0.2605078319824434</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4314740780176707</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2675366076928151</v>
+        <v>0.2675366076928152</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.191703433713233</v>
+        <v>0.1905225564083068</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4712082460981771</v>
+        <v>0.4592949756843249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3824937134792636</v>
+        <v>0.3817809060283718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2352911547670436</v>
+        <v>0.2341892664981393</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.222759988871311</v>
+        <v>0.2240124544998538</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4664844642160288</v>
+        <v>0.4640970595836939</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.353174895776141</v>
+        <v>0.3565506557230584</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1840762460611964</v>
+        <v>0.1870245243373479</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.212304682541222</v>
+        <v>0.2094533353262341</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4855942690592513</v>
+        <v>0.4814043760002609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3884563477528858</v>
+        <v>0.3908641425221414</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2307990323512364</v>
+        <v>0.2340199275257678</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2717870413030047</v>
+        <v>0.2727117363211546</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5633451940177094</v>
+        <v>0.5572003974749032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4803683910923412</v>
+        <v>0.4778175511264459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3336708948066034</v>
+        <v>0.3279035697239243</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.374904707112639</v>
+        <v>0.3747183349979774</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5998802688642092</v>
+        <v>0.5948755164568081</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.521237732920634</v>
+        <v>0.5335070501290957</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2991957101386022</v>
+        <v>0.2978102382082471</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2842504451124707</v>
+        <v>0.2825584566193622</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5590280934224395</v>
+        <v>0.5567791073495914</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4720261462511273</v>
+        <v>0.4728068643639353</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3081214744729339</v>
+        <v>0.3069526065923301</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1936307845466752</v>
+        <v>0.1964393775810829</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5123082237166853</v>
+        <v>0.5134467900112086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3619954847547153</v>
+        <v>0.3624075843499575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2319523663124168</v>
+        <v>0.2332441189254042</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2244118730590462</v>
+        <v>0.2264647344514061</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5689552046536056</v>
+        <v>0.5702930450970098</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5015375384388997</v>
+        <v>0.496109954993583</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2052052160748601</v>
+        <v>0.2036939822142194</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.214662101210307</v>
+        <v>0.2139607439649051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5471783135124373</v>
+        <v>0.5447302282106584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4303048709322113</v>
+        <v>0.4301262463663146</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2301773427096462</v>
+        <v>0.230814439428787</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2477174655496557</v>
+        <v>0.2484320640644315</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5788252570463791</v>
+        <v>0.5808936787051627</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4271365553428454</v>
+        <v>0.4267012304202986</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2988776604347262</v>
+        <v>0.3012232775788464</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2981209654871115</v>
+        <v>0.2962866608824234</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6479419008976498</v>
+        <v>0.649834535337964</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5771731376165806</v>
+        <v>0.5773850203067283</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2650122607772304</v>
+        <v>0.2638999541489604</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2571465354371288</v>
+        <v>0.256195693668924</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5988660620513674</v>
+        <v>0.5971010798918956</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4830309477349143</v>
+        <v>0.4780237382268842</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2751044563663096</v>
+        <v>0.2747005304309519</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.4494052711565587</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2766240476764254</v>
+        <v>0.2766240476764255</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1770294680160172</v>
+        <v>0.1715457127736241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4693639742879347</v>
+        <v>0.4675397703090098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3890146030780319</v>
+        <v>0.3891975384003858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1679833000357749</v>
+        <v>0.1702074684717406</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2182837335382855</v>
+        <v>0.2191178666627525</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5337111623841537</v>
+        <v>0.5334043708969789</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.424339840285054</v>
+        <v>0.4232300061919188</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2881165066250446</v>
+        <v>0.2839987881113499</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2166492032943484</v>
+        <v>0.2134837190275885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5194771038943735</v>
+        <v>0.5212179599654309</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4194290386756716</v>
+        <v>0.4194259725195482</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2539411819867323</v>
+        <v>0.2541482098107149</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.283571885264671</v>
+        <v>0.2783587783918762</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5680829212008823</v>
+        <v>0.5641555486478151</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4812113921549374</v>
+        <v>0.4796441651161174</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2537480190917076</v>
+        <v>0.2535473093705757</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2964569088483319</v>
+        <v>0.2966991968302358</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6054481571495794</v>
+        <v>0.6074438141506332</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5024489166059243</v>
+        <v>0.5048217712409924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3468688517333927</v>
+        <v>0.3442541971004882</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2781620372003887</v>
+        <v>0.2758516739340542</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5820297719882901</v>
+        <v>0.5829238868510888</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4795351613172985</v>
+        <v>0.4802826509902728</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3024182538429977</v>
+        <v>0.303140236017387</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.3758871549112078</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2373549116675719</v>
+        <v>0.237354911667572</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2468931096101856</v>
@@ -1365,7 +1365,7 @@
         <v>0.3841848124172889</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3435410913385622</v>
+        <v>0.3435410913385621</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2375772587336576</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1103967463122902</v>
+        <v>0.1129814862571422</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3824330068469865</v>
+        <v>0.3888645511595182</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2939379466515856</v>
+        <v>0.2929119120661774</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1364299197340817</v>
+        <v>0.1345321172891282</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2192014731567124</v>
+        <v>0.2205830203125152</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4068561905270553</v>
+        <v>0.4094946000280166</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3530105683828019</v>
+        <v>0.3495961304401474</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3097712422088742</v>
+        <v>0.3117699899319136</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2155462292536009</v>
+        <v>0.2122878546386197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4160743429187631</v>
+        <v>0.4151800859551877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3549550096489009</v>
+        <v>0.3509630952765209</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2956282726557573</v>
+        <v>0.2959581874888005</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2397414311492077</v>
+        <v>0.2405576498519811</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.549673226482481</v>
+        <v>0.5541404991457601</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4623613677695071</v>
+        <v>0.4564818242922579</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3681018309328017</v>
+        <v>0.3624902032383442</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2728130409519173</v>
+        <v>0.2764710142705247</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4712719584476981</v>
+        <v>0.4750888463755403</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.42100829385537</v>
+        <v>0.4161903716827361</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3807178940972568</v>
+        <v>0.3766360351632292</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.261391161032618</v>
+        <v>0.2619191239699053</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4778207025679889</v>
+        <v>0.4735419263168197</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4155964989222158</v>
+        <v>0.4141858027887398</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3636531849828998</v>
+        <v>0.3646834175731056</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.4164037942453392</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2388926685874204</v>
+        <v>0.2388926685874203</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.261611409278782</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1999891033345896</v>
+        <v>0.2016822420567667</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4979740032022697</v>
+        <v>0.4992385391819871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3963285263871866</v>
+        <v>0.3971676611806079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2204176090999952</v>
+        <v>0.2198409098207681</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2459656825929281</v>
+        <v>0.2433729845676911</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5227550498562289</v>
+        <v>0.5228169676872327</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4493887527116727</v>
+        <v>0.449338806314301</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2642792598930707</v>
+        <v>0.2650212195847623</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2293270902098418</v>
+        <v>0.2300420314685921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5170294312146536</v>
+        <v>0.517416359809983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4310439371761231</v>
+        <v>0.4315995449904639</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2493030173997684</v>
+        <v>0.2487321639330135</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2334788282844853</v>
+        <v>0.2346198884459889</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5379479247244126</v>
+        <v>0.538642784075922</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4365979748816552</v>
+        <v>0.4363922200112189</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2577178141823878</v>
+        <v>0.2592187753931459</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2799421092405593</v>
+        <v>0.2777585268894212</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5591449921029608</v>
+        <v>0.5603612521097091</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4870902606019802</v>
+        <v>0.4868735200154126</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2937731154706553</v>
+        <v>0.2941400903750758</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2534744430808658</v>
+        <v>0.2538904473663979</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5444237361940508</v>
+        <v>0.5443437510813195</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4579962415651334</v>
+        <v>0.459725490943988</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2739203682172123</v>
+        <v>0.2732799211667011</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>65464</v>
+        <v>63280</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>150336</v>
+        <v>151805</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>100656</v>
+        <v>102140</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>60428</v>
+        <v>59042</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55687</v>
+        <v>54895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>132977</v>
+        <v>132069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>123746</v>
+        <v>122084</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>66325</v>
+        <v>66945</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>127931</v>
+        <v>127503</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>295899</v>
+        <v>294612</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>236093</v>
+        <v>234752</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>136833</v>
+        <v>135099</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>97509</v>
+        <v>97803</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>190934</v>
+        <v>190486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>134540</v>
+        <v>135154</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>92960</v>
+        <v>93031</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83513</v>
+        <v>83774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>167589</v>
+        <v>167023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>158788</v>
+        <v>156847</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>93997</v>
+        <v>94707</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>170285</v>
+        <v>169982</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>347154</v>
+        <v>349175</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>284873</v>
+        <v>284615</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>180706</v>
+        <v>178442</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45486</v>
+        <v>45547</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>154354</v>
+        <v>154917</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>115095</v>
+        <v>116443</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>51244</v>
+        <v>51468</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>72758</v>
+        <v>72864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>172825</v>
+        <v>170415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>154153</v>
+        <v>154600</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>63980</v>
+        <v>64312</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>126644</v>
+        <v>126116</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>335791</v>
+        <v>336476</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>280790</v>
+        <v>278177</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>124073</v>
+        <v>120064</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>71691</v>
+        <v>72646</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>195523</v>
+        <v>194662</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>149304</v>
+        <v>150365</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81519</v>
+        <v>81484</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>104079</v>
+        <v>104143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>207317</v>
+        <v>206239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>189330</v>
+        <v>188715</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>91132</v>
+        <v>90884</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>171400</v>
+        <v>169366</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>388918</v>
+        <v>392051</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>327250</v>
+        <v>328766</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>161168</v>
+        <v>161547</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>83262</v>
+        <v>82749</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>246993</v>
+        <v>240749</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>161570</v>
+        <v>161268</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>81839</v>
+        <v>81455</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33681</v>
+        <v>33870</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>109361</v>
+        <v>108802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>52899</v>
+        <v>53405</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27679</v>
+        <v>28123</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>124310</v>
+        <v>122640</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>368375</v>
+        <v>365197</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>222272</v>
+        <v>223649</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>114981</v>
+        <v>116586</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>118044</v>
+        <v>118446</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>295289</v>
+        <v>292068</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>202913</v>
+        <v>201835</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116057</v>
+        <v>114051</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>56685</v>
+        <v>56657</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>140634</v>
+        <v>139461</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>78072</v>
+        <v>79909</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>44989</v>
+        <v>44781</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>166436</v>
+        <v>165445</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>424083</v>
+        <v>422377</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>270090</v>
+        <v>270536</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>153502</v>
+        <v>152920</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>190411</v>
+        <v>193172</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>492283</v>
+        <v>493377</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>315961</v>
+        <v>316321</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>180900</v>
+        <v>181907</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>134969</v>
+        <v>136204</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>374878</v>
+        <v>375760</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>329008</v>
+        <v>325448</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>134287</v>
+        <v>133298</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>340197</v>
+        <v>339086</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>886320</v>
+        <v>882355</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>657863</v>
+        <v>657589</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>330145</v>
+        <v>331058</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>243598</v>
+        <v>244300</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>556200</v>
+        <v>558187</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>372818</v>
+        <v>372438</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>233095</v>
+        <v>234924</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>179300</v>
+        <v>178197</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>426922</v>
+        <v>428169</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>378625</v>
+        <v>378764</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>173425</v>
+        <v>172697</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>407527</v>
+        <v>406020</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>970044</v>
+        <v>967185</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>738472</v>
+        <v>730817</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>394584</v>
+        <v>394004</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47645</v>
+        <v>46169</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>194442</v>
+        <v>193686</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>187001</v>
+        <v>187089</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>65298</v>
+        <v>66163</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>109600</v>
+        <v>110019</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>375247</v>
+        <v>375031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>279848</v>
+        <v>279116</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>195761</v>
+        <v>192963</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>167087</v>
+        <v>164646</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>580441</v>
+        <v>582386</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>478231</v>
+        <v>478228</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>271252</v>
+        <v>271473</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>76319</v>
+        <v>74916</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>235337</v>
+        <v>233710</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>231321</v>
+        <v>230567</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>98637</v>
+        <v>98559</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>148850</v>
+        <v>148972</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>425685</v>
+        <v>427088</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>331361</v>
+        <v>332925</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>235680</v>
+        <v>233904</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>214528</v>
+        <v>212746</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>650334</v>
+        <v>651334</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>546764</v>
+        <v>547616</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>323034</v>
+        <v>323805</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>16025</v>
+        <v>16400</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>58658</v>
+        <v>59645</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>44184</v>
+        <v>44030</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14045</v>
+        <v>13850</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>235187</v>
+        <v>236669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>396861</v>
+        <v>399435</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>317532</v>
+        <v>314461</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>201695</v>
+        <v>202997</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>262553</v>
+        <v>258584</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>469672</v>
+        <v>468662</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>372637</v>
+        <v>368447</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>222921</v>
+        <v>223170</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>34800</v>
+        <v>34918</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>84310</v>
+        <v>84995</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>69501</v>
+        <v>68617</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>37896</v>
+        <v>37318</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>292708</v>
+        <v>296633</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>459695</v>
+        <v>463418</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>378696</v>
+        <v>374362</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>247890</v>
+        <v>245232</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>318396</v>
+        <v>319039</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>539372</v>
+        <v>534542</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>436300</v>
+        <v>434819</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>274216</v>
+        <v>274993</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>492102</v>
+        <v>496268</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1366594</v>
+        <v>1370064</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>989974</v>
+        <v>992070</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>508731</v>
+        <v>507400</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>706507</v>
+        <v>699060</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1639045</v>
+        <v>1639239</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1322608</v>
+        <v>1322461</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>741062</v>
+        <v>743143</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1223007</v>
+        <v>1226820</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3039981</v>
+        <v>3042256</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2345304</v>
+        <v>2348328</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1274467</v>
+        <v>1271549</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>574509</v>
+        <v>577316</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1476294</v>
+        <v>1478201</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1090561</v>
+        <v>1090047</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>594821</v>
+        <v>598285</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>804100</v>
+        <v>797828</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1753142</v>
+        <v>1756956</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1433568</v>
+        <v>1432931</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>823766</v>
+        <v>824795</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1351786</v>
+        <v>1354004</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>3201051</v>
+        <v>3200581</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2491952</v>
+        <v>2501360</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1400314</v>
+        <v>1397040</v>
       </c>
     </row>
     <row r="32">
